--- a/results/gp_success_trace.xlsx
+++ b/results/gp_success_trace.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Robin\projects\ThirdYearProject\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\projects\ThirdYearProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0DA63027-1AF6-4DB1-8D9D-B744679C5C51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="gp_success_trace" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,7 +558,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -573,6 +572,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -783,7 +783,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3619-4346-8C1C-EAE90540318F}"/>
             </c:ext>
@@ -798,11 +798,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="416298072"/>
-        <c:axId val="416298400"/>
+        <c:axId val="351868680"/>
+        <c:axId val="353080288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="416298072"/>
+        <c:axId val="351868680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416298400"/>
+        <c:crossAx val="353080288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,7 +852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416298400"/>
+        <c:axId val="353080288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +903,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416298072"/>
+        <c:crossAx val="351868680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -917,13 +917,403 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gp_success_trace!$B$22:$AY$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>530.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>522.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>488.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>468.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>478.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>459.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>460.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>465.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>459.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>468.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>449.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>475.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>473.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>449.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>458.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>459.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>471.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>452.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>461.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>454.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>463.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>479.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>463.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>470.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>469.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>468.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>454.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>460.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="387086720"/>
+        <c:axId val="387087112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="387086720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387087112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387087112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387086720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -960,6 +1350,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1515,6 +1945,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1535,7 +2481,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC90CB96-7AD4-4C95-AB86-B19AC8B455D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC90CB96-7AD4-4C95-AB86-B19AC8B455D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,6 +2494,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1855,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5192,6 +6168,206 @@
         <f>AVERAGE(A1:A20)</f>
         <v>1.7</v>
       </c>
+      <c r="B22">
+        <f>MEDIAN(B1:B20)</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:AY22" si="2">MEDIAN(C1:C20)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>158.5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>524</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>530.5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>522.5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>499</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>516</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>488.5</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>476</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>479</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>468.5</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>478.5</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>459.5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>460.5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>466</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>465.5</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>459.5</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>468.5</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>449.5</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>475.5</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>467</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="2"/>
+        <v>458.5</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="2"/>
+        <v>468</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="2"/>
+        <v>473.5</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="2"/>
+        <v>449.5</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="2"/>
+        <v>458.5</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="2"/>
+        <v>459.5</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="2"/>
+        <v>471.5</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="2"/>
+        <v>452.5</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="2"/>
+        <v>461.5</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="2"/>
+        <v>464</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="2"/>
+        <v>454.5</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="2"/>
+        <v>477</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="2"/>
+        <v>477</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="2"/>
+        <v>463.5</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="2"/>
+        <v>474</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="2"/>
+        <v>479.5</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="2"/>
+        <v>463.5</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="2"/>
+        <v>470.5</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="2"/>
+        <v>479</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="2"/>
+        <v>469.5</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="2"/>
+        <v>458</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="2"/>
+        <v>468.5</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="2"/>
+        <v>454.5</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="2"/>
+        <v>472</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="2"/>
+        <v>460.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
